--- a/Data/Stuff/PV Array Characterisation.xlsx
+++ b/Data/Stuff/PV Array Characterisation.xlsx
@@ -5,32 +5,33 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/iam22_ic_ac_uk/Documents/Year 2 Project Power Grid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/iam22_ic_ac_uk/Documents/Year 2 Project Power Grid/QuintupleE/Data/Stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="684" documentId="8_{421C8579-E8E8-429A-885D-0A0DAAC444CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F89A59C-FEE7-4ADD-8B89-581AC500DE32}"/>
+  <xr:revisionPtr revIDLastSave="715" documentId="8_{421C8579-E8E8-429A-885D-0A0DAAC444CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62B245EB-B19D-4200-8B33-962C0B4187E7}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7200" yWindow="4365" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{14AC25DF-5AF7-4C6D-9280-F67FBB861D4B}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" activeTab="1" xr2:uid="{14AC25DF-5AF7-4C6D-9280-F67FBB861D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="IV" sheetId="11" r:id="rId1"/>
-    <sheet name="Power Consumption" sheetId="6" r:id="rId2"/>
-    <sheet name="PV Emulation" sheetId="12" r:id="rId3"/>
-    <sheet name="Boost_CL 120R" sheetId="2" r:id="rId4"/>
-    <sheet name="Boost_CL 75R" sheetId="1" r:id="rId5"/>
-    <sheet name="Buck_CL 10R" sheetId="5" r:id="rId6"/>
-    <sheet name="Buck_CL 2R2" sheetId="4" r:id="rId7"/>
-    <sheet name="Buck_CL 0R5" sheetId="3" r:id="rId8"/>
-    <sheet name="PSU_10R_Ideal" sheetId="8" r:id="rId9"/>
-    <sheet name="PSU_2R2_NI" sheetId="9" r:id="rId10"/>
-    <sheet name="PSU_0R5_NI" sheetId="10" r:id="rId11"/>
+    <sheet name="MPPT" sheetId="13" r:id="rId2"/>
+    <sheet name="Power Consumption" sheetId="6" r:id="rId3"/>
+    <sheet name="PV Emulation" sheetId="12" r:id="rId4"/>
+    <sheet name="Boost_CL 120R" sheetId="2" r:id="rId5"/>
+    <sheet name="Boost_CL 75R" sheetId="1" r:id="rId6"/>
+    <sheet name="Buck_CL 10R" sheetId="5" r:id="rId7"/>
+    <sheet name="Buck_CL 2R2" sheetId="4" r:id="rId8"/>
+    <sheet name="Buck_CL 0R5" sheetId="3" r:id="rId9"/>
+    <sheet name="PSU_10R_Ideal" sheetId="8" r:id="rId10"/>
+    <sheet name="PSU_2R2_NI" sheetId="9" r:id="rId11"/>
+    <sheet name="PSU_0R5_NI" sheetId="10" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
   <si>
     <t>Duty Cycle</t>
   </si>
@@ -146,6 +147,12 @@
   </si>
   <si>
     <t>Pm (Act)</t>
+  </si>
+  <si>
+    <t>IncrCond</t>
+  </si>
+  <si>
+    <t>P&amp;O</t>
   </si>
 </sst>
 </file>
@@ -42374,6 +42381,1637 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4724C407-BD96-403B-B787-538D0440594D}">
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView zoomScale="65" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>MAX(E:E)</f>
+        <v>3.9969999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>63536</v>
+      </c>
+      <c r="B3">
+        <v>11.978999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D3">
+        <v>-1E-3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <f>E3/0.868913</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>G3/B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>62536</v>
+      </c>
+      <c r="B4">
+        <v>11.971</v>
+      </c>
+      <c r="C4">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="D4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F4">
+        <f>F2/4.3</f>
+        <v>0.92953488372093029</v>
+      </c>
+      <c r="G4">
+        <f>E4/0.929535</f>
+        <v>4.3032268822583335E-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H65" si="0">G4/B4</f>
+        <v>3.5947096167891849E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>61536</v>
+      </c>
+      <c r="B5">
+        <v>11.975</v>
+      </c>
+      <c r="C5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D5">
+        <v>0.04</v>
+      </c>
+      <c r="E5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G65" si="1">E5/0.929535</f>
+        <v>2.4743554572985417E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>2.0662676052597426E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>60536</v>
+      </c>
+      <c r="B6">
+        <v>11.987</v>
+      </c>
+      <c r="C6">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="D6">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>4.1956462102018754E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>3.5001636858278764E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>59536</v>
+      </c>
+      <c r="B7">
+        <v>11.926</v>
+      </c>
+      <c r="C7">
+        <v>0.87</v>
+      </c>
+      <c r="D7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E7">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>6.5624209954439586E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>5.5026169675028999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>58536</v>
+      </c>
+      <c r="B8">
+        <v>11.95</v>
+      </c>
+      <c r="C8">
+        <v>1.042</v>
+      </c>
+      <c r="D8">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E8">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>9.5746798130247918E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>8.0122843623638435E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>57536</v>
+      </c>
+      <c r="B9">
+        <v>11.926</v>
+      </c>
+      <c r="C9">
+        <v>1.194</v>
+      </c>
+      <c r="D9">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.121</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.13017261318831458</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1.0915027099472965E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>56536</v>
+      </c>
+      <c r="B10">
+        <v>11.888999999999999</v>
+      </c>
+      <c r="C10">
+        <v>1.391</v>
+      </c>
+      <c r="D10">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.17643230217259168</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1.4839961491512465E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>55536</v>
+      </c>
+      <c r="B11">
+        <v>11.909000000000001</v>
+      </c>
+      <c r="C11">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.2248436045979979</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>1.8880141455873533E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>54536</v>
+      </c>
+      <c r="B12">
+        <v>11.868</v>
+      </c>
+      <c r="C12">
+        <v>1.7230000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.15</v>
+      </c>
+      <c r="E12">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.27863394062622709</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>2.3477750305546604E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>53536</v>
+      </c>
+      <c r="B13">
+        <v>11.872</v>
+      </c>
+      <c r="C13">
+        <v>1.887</v>
+      </c>
+      <c r="D13">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.313</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.3367275035367146</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>2.8363165729170706E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>52536</v>
+      </c>
+      <c r="B14">
+        <v>11.823</v>
+      </c>
+      <c r="C14">
+        <v>2.0590000000000002</v>
+      </c>
+      <c r="D14">
+        <v>0.182</v>
+      </c>
+      <c r="E14">
+        <v>0.374</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.40235171349115417</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>3.4031270700427482E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>51536</v>
+      </c>
+      <c r="B15">
+        <v>11.79</v>
+      </c>
+      <c r="C15">
+        <v>2.1989999999999998</v>
+      </c>
+      <c r="D15">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.435</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.46797592344559374</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>3.9692614371975722E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>50536</v>
+      </c>
+      <c r="B16">
+        <v>11.757</v>
+      </c>
+      <c r="C16">
+        <v>2.343</v>
+      </c>
+      <c r="D16">
+        <v>0.214</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.53790336028229169</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>4.5751753022224353E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>49536</v>
+      </c>
+      <c r="B17">
+        <v>11.715999999999999</v>
+      </c>
+      <c r="C17">
+        <v>2.5150000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.61966467104519996</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>5.2890463557972001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>48536</v>
+      </c>
+      <c r="B18">
+        <v>11.675000000000001</v>
+      </c>
+      <c r="C18">
+        <v>2.6829999999999998</v>
+      </c>
+      <c r="D18">
+        <v>0.245</v>
+      </c>
+      <c r="E18">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.70680501541093133</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>6.0540044146546575E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>47536</v>
+      </c>
+      <c r="B19">
+        <v>11.634</v>
+      </c>
+      <c r="C19">
+        <v>2.831</v>
+      </c>
+      <c r="D19">
+        <v>0.26</v>
+      </c>
+      <c r="E19">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.79179374633553334</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>6.8058599478729012E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>46536</v>
+      </c>
+      <c r="B20">
+        <v>11.646000000000001</v>
+      </c>
+      <c r="C20">
+        <v>3.0070000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E20">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.8918437713480396</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>7.6579406778983297E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>45536</v>
+      </c>
+      <c r="B21">
+        <v>11.564</v>
+      </c>
+      <c r="C21">
+        <v>3.1840000000000002</v>
+      </c>
+      <c r="D21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E21">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.99296960308111049</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>8.5867312615108132E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>44536</v>
+      </c>
+      <c r="B22">
+        <v>11.523</v>
+      </c>
+      <c r="C22">
+        <v>3.3149999999999999</v>
+      </c>
+      <c r="D22">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E22">
+        <v>1.012</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>1.0887164012113584</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>9.4482027354973394E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>43536</v>
+      </c>
+      <c r="B23">
+        <v>11.478</v>
+      </c>
+      <c r="C23">
+        <v>3.4870000000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.32</v>
+      </c>
+      <c r="E23">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>1.2027519135912044</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0.1047875861292215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>42536</v>
+      </c>
+      <c r="B24">
+        <v>11.441000000000001</v>
+      </c>
+      <c r="C24">
+        <v>3.6389999999999998</v>
+      </c>
+      <c r="D24">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="E24">
+        <v>1.218</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1.3103325856476624</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0.11452955035815596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>41536</v>
+      </c>
+      <c r="B25">
+        <v>11.382999999999999</v>
+      </c>
+      <c r="C25">
+        <v>3.7989999999999999</v>
+      </c>
+      <c r="D25">
+        <v>0.35</v>
+      </c>
+      <c r="E25">
+        <v>1.33</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1.4308229383508959</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0.12569822879301557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>40536</v>
+      </c>
+      <c r="B26">
+        <v>11.342000000000001</v>
+      </c>
+      <c r="C26">
+        <v>3.9430000000000001</v>
+      </c>
+      <c r="D26">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="E26">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>1.5405552238484834</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0.13582747521146918</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>39536</v>
+      </c>
+      <c r="B27">
+        <v>11.218999999999999</v>
+      </c>
+      <c r="C27">
+        <v>4.0780000000000003</v>
+      </c>
+      <c r="D27">
+        <v>0.378</v>
+      </c>
+      <c r="E27">
+        <v>1.542</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>1.6588939631105877</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0.14786469053485943</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>38536</v>
+      </c>
+      <c r="B28">
+        <v>11.231</v>
+      </c>
+      <c r="C28">
+        <v>4.226</v>
+      </c>
+      <c r="D28">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E28">
+        <v>1.6539999999999999</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1.7793843158138207</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0.15843507397505305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>37536</v>
+      </c>
+      <c r="B29">
+        <v>11.164999999999999</v>
+      </c>
+      <c r="C29">
+        <v>4.4020000000000001</v>
+      </c>
+      <c r="D29">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="E29">
+        <v>1.782</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>1.9170875760460875</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0.17170511205070199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>36536</v>
+      </c>
+      <c r="B30">
+        <v>11.12</v>
+      </c>
+      <c r="C30">
+        <v>4.5170000000000003</v>
+      </c>
+      <c r="D30">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="E30">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>2.0354263153081917</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0.18304193482987338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>35536</v>
+      </c>
+      <c r="B31">
+        <v>11.03</v>
+      </c>
+      <c r="C31">
+        <v>4.694</v>
+      </c>
+      <c r="D31">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E31">
+        <v>2.0219999999999998</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>2.1752811889815873</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0.19721497633559271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>34536</v>
+      </c>
+      <c r="B32">
+        <v>10.964</v>
+      </c>
+      <c r="C32">
+        <v>4.7839999999999998</v>
+      </c>
+      <c r="D32">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="E32">
+        <v>2.125</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>2.2860892811997395</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0.2085086903684549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33536</v>
+      </c>
+      <c r="B33">
+        <v>10.927</v>
+      </c>
+      <c r="C33">
+        <v>4.9189999999999996</v>
+      </c>
+      <c r="D33">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="E33">
+        <v>2.2450000000000001</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>2.41518608766749</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0.22102920176329185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32536</v>
+      </c>
+      <c r="B34">
+        <v>10.845000000000001</v>
+      </c>
+      <c r="C34">
+        <v>5.05</v>
+      </c>
+      <c r="D34">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="E34">
+        <v>2.3690000000000002</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>2.548586121017498</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>0.23500102545112936</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>31536</v>
+      </c>
+      <c r="B35">
+        <v>10.779</v>
+      </c>
+      <c r="C35">
+        <v>5.1859999999999999</v>
+      </c>
+      <c r="D35">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E35">
+        <v>2.4940000000000002</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>2.6830619610880713</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>0.24891566574710747</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>30536</v>
+      </c>
+      <c r="B36">
+        <v>10.705</v>
+      </c>
+      <c r="C36">
+        <v>5.3049999999999997</v>
+      </c>
+      <c r="D36">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="E36">
+        <v>2.613</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>2.8110829608352561</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>0.2625953256268338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>29536</v>
+      </c>
+      <c r="B37">
+        <v>10.643000000000001</v>
+      </c>
+      <c r="C37">
+        <v>5.444</v>
+      </c>
+      <c r="D37">
+        <v>0.505</v>
+      </c>
+      <c r="E37">
+        <v>2.7509999999999999</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>2.9595442882731686</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>0.27807425427728727</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>28536</v>
+      </c>
+      <c r="B38">
+        <v>10.557</v>
+      </c>
+      <c r="C38">
+        <v>5.5469999999999997</v>
+      </c>
+      <c r="D38">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="E38">
+        <v>2.8620000000000001</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>3.0789588342558378</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0.29165092680267479</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>27536</v>
+      </c>
+      <c r="B39">
+        <v>10.52</v>
+      </c>
+      <c r="C39">
+        <v>5.67</v>
+      </c>
+      <c r="D39">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="E39">
+        <v>2.992</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>3.2188137079292334</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>0.30597088478414769</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>26536</v>
+      </c>
+      <c r="B40">
+        <v>10.478999999999999</v>
+      </c>
+      <c r="C40">
+        <v>5.7889999999999997</v>
+      </c>
+      <c r="D40">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E40">
+        <v>3.117</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>3.3532895479998062</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>0.32000091115562612</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>25536</v>
+      </c>
+      <c r="B41">
+        <v>10.401</v>
+      </c>
+      <c r="C41">
+        <v>5.8959999999999999</v>
+      </c>
+      <c r="D41">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="E41">
+        <v>3.2330000000000001</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>3.4780831275852981</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>0.3343989162181808</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>24536</v>
+      </c>
+      <c r="B42">
+        <v>10.331</v>
+      </c>
+      <c r="C42">
+        <v>6.0110000000000001</v>
+      </c>
+      <c r="D42">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E42">
+        <v>3.363</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>3.6179380012586937</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>0.35020211027574233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>23536</v>
+      </c>
+      <c r="B43">
+        <v>10.253</v>
+      </c>
+      <c r="C43">
+        <v>6.109</v>
+      </c>
+      <c r="D43">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="E43">
+        <v>3.4740000000000002</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>3.7373525472413629</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>0.36451307395312227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>22536</v>
+      </c>
+      <c r="B44">
+        <v>10.17</v>
+      </c>
+      <c r="C44">
+        <v>6.2069999999999999</v>
+      </c>
+      <c r="D44">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E44">
+        <v>3.5960000000000001</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>3.8686009671502419</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>0.38039340876600214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>21536</v>
+      </c>
+      <c r="B45">
+        <v>10.064</v>
+      </c>
+      <c r="C45">
+        <v>6.2160000000000002</v>
+      </c>
+      <c r="D45">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="E45">
+        <v>3.6589999999999998</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>3.9363767905458102</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>0.39113441877442473</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>20536</v>
+      </c>
+      <c r="B46">
+        <v>9.99</v>
+      </c>
+      <c r="C46">
+        <v>6.3719999999999999</v>
+      </c>
+      <c r="D46">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="E46">
+        <v>3.81</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>4.0988236053510629</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>0.41029265318829455</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>19536</v>
+      </c>
+      <c r="B47">
+        <v>9.9030000000000005</v>
+      </c>
+      <c r="C47">
+        <v>6.47</v>
+      </c>
+      <c r="D47">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="E47">
+        <v>3.9260000000000002</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>4.223617184936554</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>0.42649875643103646</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>18536</v>
+      </c>
+      <c r="B48">
+        <v>9.5419999999999998</v>
+      </c>
+      <c r="C48">
+        <v>6.3470000000000004</v>
+      </c>
+      <c r="D48">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="E48">
+        <v>3.8420000000000001</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>4.133249420409129</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>0.43316384619672282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>17536</v>
+      </c>
+      <c r="B49" s="1">
+        <v>9.5790000000000006</v>
+      </c>
+      <c r="C49" s="1">
+        <v>6.5359999999999996</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="E49" s="1">
+        <v>3.9969999999999999</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>4.2999994620966397</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44889857627065866</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>16536</v>
+      </c>
+      <c r="B50">
+        <v>8.8960000000000008</v>
+      </c>
+      <c r="C50">
+        <v>6.2279999999999998</v>
+      </c>
+      <c r="D50">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="E50">
+        <v>3.661</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>3.9385284039869397</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>0.44273026123953907</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>15536</v>
+      </c>
+      <c r="B51">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="C51">
+        <v>6.298</v>
+      </c>
+      <c r="D51">
+        <v>0.59</v>
+      </c>
+      <c r="E51">
+        <v>3.7160000000000002</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>3.9976977736179919</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>0.45019119072274683</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>14536</v>
+      </c>
+      <c r="B52">
+        <v>8.2710000000000008</v>
+      </c>
+      <c r="C52">
+        <v>6.06</v>
+      </c>
+      <c r="D52">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="E52">
+        <v>3.4470000000000001</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>3.7083057657861191</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>0.44835035253126815</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>13536</v>
+      </c>
+      <c r="B53">
+        <v>8.23</v>
+      </c>
+      <c r="C53">
+        <v>6.117</v>
+      </c>
+      <c r="D53">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E53">
+        <v>3.49</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>3.7545654547703964</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>0.45620479401827413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>12536</v>
+      </c>
+      <c r="B54">
+        <v>7.6790000000000003</v>
+      </c>
+      <c r="C54">
+        <v>5.8380000000000001</v>
+      </c>
+      <c r="D54">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="E54">
+        <v>3.206</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>3.4490363461300544</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>0.44915175753744685</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>11536</v>
+      </c>
+      <c r="B55">
+        <v>7.6459999999999999</v>
+      </c>
+      <c r="C55">
+        <v>5.92</v>
+      </c>
+      <c r="D55">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="E55">
+        <v>3.2669999999999999</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>3.5146605560844937</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>0.45967310437934789</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>10536</v>
+      </c>
+      <c r="B56">
+        <v>7.157</v>
+      </c>
+      <c r="C56">
+        <v>5.6539999999999999</v>
+      </c>
+      <c r="D56">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="E56">
+        <v>3.0089999999999999</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>3.2371024221788312</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>0.4522987875057749</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>9536</v>
+      </c>
+      <c r="B57">
+        <v>7.157</v>
+      </c>
+      <c r="C57">
+        <v>5.7279999999999998</v>
+      </c>
+      <c r="D57">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="E57">
+        <v>3.0569999999999999</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>3.2887411447659312</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>0.45951392270028379</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>8536</v>
+      </c>
+      <c r="B58">
+        <v>6.6879999999999997</v>
+      </c>
+      <c r="C58">
+        <v>5.4729999999999999</v>
+      </c>
+      <c r="D58">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="E58">
+        <v>2.827</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>3.0413055990360771</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>0.45474066971233212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>7536</v>
+      </c>
+      <c r="B59">
+        <v>6.66</v>
+      </c>
+      <c r="C59">
+        <v>5.5679999999999996</v>
+      </c>
+      <c r="D59">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="E59">
+        <v>2.88</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>3.0983233552259999</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>0.46521371700090086</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>6536</v>
+      </c>
+      <c r="B60">
+        <v>6.298</v>
+      </c>
+      <c r="C60">
+        <v>5.3380000000000001</v>
+      </c>
+      <c r="D60">
+        <v>0.501</v>
+      </c>
+      <c r="E60">
+        <v>2.6749999999999998</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>2.8777829775102601</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>0.45693600786126709</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5536</v>
+      </c>
+      <c r="B61">
+        <v>6.2569999999999997</v>
+      </c>
+      <c r="C61">
+        <v>5.3869999999999996</v>
+      </c>
+      <c r="D61">
+        <v>0.501</v>
+      </c>
+      <c r="E61">
+        <v>2.7010000000000001</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>2.9057539522449396</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>0.46440050379494002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4536</v>
+      </c>
+      <c r="B62">
+        <v>5.9109999999999996</v>
+      </c>
+      <c r="C62">
+        <v>5.1689999999999996</v>
+      </c>
+      <c r="D62">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="E62">
+        <v>2.516</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>2.7067297089404918</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>0.45791400929461884</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3536</v>
+      </c>
+      <c r="B63">
+        <v>5.8209999999999997</v>
+      </c>
+      <c r="C63">
+        <v>5.2060000000000004</v>
+      </c>
+      <c r="D63">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="E63">
+        <v>2.524</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>2.7153361627050083</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>0.46647245536935378</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2536</v>
+      </c>
+      <c r="B64">
+        <v>5.5659999999999998</v>
+      </c>
+      <c r="C64">
+        <v>5.0259999999999998</v>
+      </c>
+      <c r="D64">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="E64">
+        <v>2.3719999999999999</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>2.5518135411791918</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>0.4584645241069335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1536</v>
+      </c>
+      <c r="B65">
+        <v>5.492</v>
+      </c>
+      <c r="C65">
+        <v>5.0419999999999998</v>
+      </c>
+      <c r="D65">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="E65">
+        <v>2.3650000000000002</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>2.54428289413524</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>0.46327073818922798</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D029786-217F-4F7E-B1B2-2A9CD32FBFC0}">
   <dimension ref="A1:F65"/>
   <sheetViews>
@@ -43486,7 +45124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0207DE-DDC2-4CB2-AE2A-6C44B781B604}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -44064,10 +45702,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D942DA4C-3787-4293-9638-544A0669DA5E}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>1.6</v>
+      </c>
+      <c r="C2">
+        <v>3.5</v>
+      </c>
+      <c r="D2">
+        <v>1.3</v>
+      </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+      <c r="F2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>1.3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>0.23</v>
+      </c>
+      <c r="F3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91A37A2-602C-4825-B48E-39368789826D}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="162" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="97" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -45371,11 +47084,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0CD68B-6A03-41ED-9C34-2B323C56479F}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -45503,7 +47216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AE000A-CB23-442F-AB04-8CFE2A9B9930}">
   <dimension ref="A1:F65"/>
   <sheetViews>
@@ -46686,7 +48399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A7344C-B84A-4976-9223-13890C898F5C}">
   <dimension ref="A1:F65"/>
   <sheetViews>
@@ -47806,7 +49519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B75A17-CC62-4857-924D-DCC54A201B93}">
   <dimension ref="A1:H65"/>
   <sheetViews>
@@ -49445,7 +51158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CAD184-6DED-428F-81AB-DADFDD936803}">
   <dimension ref="A1:I65"/>
   <sheetViews>
@@ -51146,7 +52859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0C5D98-F989-4320-9226-4EFE703FA09A}">
   <dimension ref="A1:H65"/>
   <sheetViews>
@@ -52774,1635 +54487,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4724C407-BD96-403B-B787-538D0440594D}">
-  <dimension ref="A1:H65"/>
-  <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F2">
-        <f>MAX(E:E)</f>
-        <v>3.9969999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>63536</v>
-      </c>
-      <c r="B3">
-        <v>11.978999999999999</v>
-      </c>
-      <c r="C3">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="D3">
-        <v>-1E-3</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <f>E3/0.868913</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f>G3/B3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>62536</v>
-      </c>
-      <c r="B4">
-        <v>11.971</v>
-      </c>
-      <c r="C4">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="D4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F4">
-        <f>F2/4.3</f>
-        <v>0.92953488372093029</v>
-      </c>
-      <c r="G4">
-        <f>E4/0.929535</f>
-        <v>4.3032268822583335E-3</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H65" si="0">G4/B4</f>
-        <v>3.5947096167891849E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>61536</v>
-      </c>
-      <c r="B5">
-        <v>11.975</v>
-      </c>
-      <c r="C5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D5">
-        <v>0.04</v>
-      </c>
-      <c r="E5">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G65" si="1">E5/0.929535</f>
-        <v>2.4743554572985417E-2</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>2.0662676052597426E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>60536</v>
-      </c>
-      <c r="B6">
-        <v>11.987</v>
-      </c>
-      <c r="C6">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="D6">
-        <v>5.5E-2</v>
-      </c>
-      <c r="E6">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>4.1956462102018754E-2</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>3.5001636858278764E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>59536</v>
-      </c>
-      <c r="B7">
-        <v>11.926</v>
-      </c>
-      <c r="C7">
-        <v>0.87</v>
-      </c>
-      <c r="D7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E7">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>6.5624209954439586E-2</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>5.5026169675028999E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>58536</v>
-      </c>
-      <c r="B8">
-        <v>11.95</v>
-      </c>
-      <c r="C8">
-        <v>1.042</v>
-      </c>
-      <c r="D8">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="E8">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>9.5746798130247918E-2</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>8.0122843623638435E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>57536</v>
-      </c>
-      <c r="B9">
-        <v>11.926</v>
-      </c>
-      <c r="C9">
-        <v>1.194</v>
-      </c>
-      <c r="D9">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="E9">
-        <v>0.121</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>0.13017261318831458</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>1.0915027099472965E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>56536</v>
-      </c>
-      <c r="B10">
-        <v>11.888999999999999</v>
-      </c>
-      <c r="C10">
-        <v>1.391</v>
-      </c>
-      <c r="D10">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="E10">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>0.17643230217259168</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>1.4839961491512465E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>55536</v>
-      </c>
-      <c r="B11">
-        <v>11.909000000000001</v>
-      </c>
-      <c r="C11">
-        <v>1.5589999999999999</v>
-      </c>
-      <c r="D11">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>0.2248436045979979</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>1.8880141455873533E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>54536</v>
-      </c>
-      <c r="B12">
-        <v>11.868</v>
-      </c>
-      <c r="C12">
-        <v>1.7230000000000001</v>
-      </c>
-      <c r="D12">
-        <v>0.15</v>
-      </c>
-      <c r="E12">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>0.27863394062622709</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>2.3477750305546604E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>53536</v>
-      </c>
-      <c r="B13">
-        <v>11.872</v>
-      </c>
-      <c r="C13">
-        <v>1.887</v>
-      </c>
-      <c r="D13">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="E13">
-        <v>0.313</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>0.3367275035367146</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>2.8363165729170706E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>52536</v>
-      </c>
-      <c r="B14">
-        <v>11.823</v>
-      </c>
-      <c r="C14">
-        <v>2.0590000000000002</v>
-      </c>
-      <c r="D14">
-        <v>0.182</v>
-      </c>
-      <c r="E14">
-        <v>0.374</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>0.40235171349115417</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>3.4031270700427482E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>51536</v>
-      </c>
-      <c r="B15">
-        <v>11.79</v>
-      </c>
-      <c r="C15">
-        <v>2.1989999999999998</v>
-      </c>
-      <c r="D15">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="E15">
-        <v>0.435</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>0.46797592344559374</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>3.9692614371975722E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>50536</v>
-      </c>
-      <c r="B16">
-        <v>11.757</v>
-      </c>
-      <c r="C16">
-        <v>2.343</v>
-      </c>
-      <c r="D16">
-        <v>0.214</v>
-      </c>
-      <c r="E16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>0.53790336028229169</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>4.5751753022224353E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>49536</v>
-      </c>
-      <c r="B17">
-        <v>11.715999999999999</v>
-      </c>
-      <c r="C17">
-        <v>2.5150000000000001</v>
-      </c>
-      <c r="D17">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="E17">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>0.61966467104519996</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>5.2890463557972001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>48536</v>
-      </c>
-      <c r="B18">
-        <v>11.675000000000001</v>
-      </c>
-      <c r="C18">
-        <v>2.6829999999999998</v>
-      </c>
-      <c r="D18">
-        <v>0.245</v>
-      </c>
-      <c r="E18">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>0.70680501541093133</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>6.0540044146546575E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>47536</v>
-      </c>
-      <c r="B19">
-        <v>11.634</v>
-      </c>
-      <c r="C19">
-        <v>2.831</v>
-      </c>
-      <c r="D19">
-        <v>0.26</v>
-      </c>
-      <c r="E19">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>0.79179374633553334</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>6.8058599478729012E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>46536</v>
-      </c>
-      <c r="B20">
-        <v>11.646000000000001</v>
-      </c>
-      <c r="C20">
-        <v>3.0070000000000001</v>
-      </c>
-      <c r="D20">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="E20">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>0.8918437713480396</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>7.6579406778983297E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>45536</v>
-      </c>
-      <c r="B21">
-        <v>11.564</v>
-      </c>
-      <c r="C21">
-        <v>3.1840000000000002</v>
-      </c>
-      <c r="D21">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E21">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>0.99296960308111049</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>8.5867312615108132E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>44536</v>
-      </c>
-      <c r="B22">
-        <v>11.523</v>
-      </c>
-      <c r="C22">
-        <v>3.3149999999999999</v>
-      </c>
-      <c r="D22">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="E22">
-        <v>1.012</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>1.0887164012113584</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>9.4482027354973394E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>43536</v>
-      </c>
-      <c r="B23">
-        <v>11.478</v>
-      </c>
-      <c r="C23">
-        <v>3.4870000000000001</v>
-      </c>
-      <c r="D23">
-        <v>0.32</v>
-      </c>
-      <c r="E23">
-        <v>1.1180000000000001</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>1.2027519135912044</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>0.1047875861292215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>42536</v>
-      </c>
-      <c r="B24">
-        <v>11.441000000000001</v>
-      </c>
-      <c r="C24">
-        <v>3.6389999999999998</v>
-      </c>
-      <c r="D24">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="E24">
-        <v>1.218</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>1.3103325856476624</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>0.11452955035815596</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>41536</v>
-      </c>
-      <c r="B25">
-        <v>11.382999999999999</v>
-      </c>
-      <c r="C25">
-        <v>3.7989999999999999</v>
-      </c>
-      <c r="D25">
-        <v>0.35</v>
-      </c>
-      <c r="E25">
-        <v>1.33</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>1.4308229383508959</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>0.12569822879301557</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>40536</v>
-      </c>
-      <c r="B26">
-        <v>11.342000000000001</v>
-      </c>
-      <c r="C26">
-        <v>3.9430000000000001</v>
-      </c>
-      <c r="D26">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="E26">
-        <v>1.4319999999999999</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>1.5405552238484834</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>0.13582747521146918</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>39536</v>
-      </c>
-      <c r="B27">
-        <v>11.218999999999999</v>
-      </c>
-      <c r="C27">
-        <v>4.0780000000000003</v>
-      </c>
-      <c r="D27">
-        <v>0.378</v>
-      </c>
-      <c r="E27">
-        <v>1.542</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>1.6588939631105877</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>0.14786469053485943</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>38536</v>
-      </c>
-      <c r="B28">
-        <v>11.231</v>
-      </c>
-      <c r="C28">
-        <v>4.226</v>
-      </c>
-      <c r="D28">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="E28">
-        <v>1.6539999999999999</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>1.7793843158138207</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>0.15843507397505305</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>37536</v>
-      </c>
-      <c r="B29">
-        <v>11.164999999999999</v>
-      </c>
-      <c r="C29">
-        <v>4.4020000000000001</v>
-      </c>
-      <c r="D29">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="E29">
-        <v>1.782</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>1.9170875760460875</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>0.17170511205070199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>36536</v>
-      </c>
-      <c r="B30">
-        <v>11.12</v>
-      </c>
-      <c r="C30">
-        <v>4.5170000000000003</v>
-      </c>
-      <c r="D30">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="E30">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
-        <v>2.0354263153081917</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>0.18304193482987338</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>35536</v>
-      </c>
-      <c r="B31">
-        <v>11.03</v>
-      </c>
-      <c r="C31">
-        <v>4.694</v>
-      </c>
-      <c r="D31">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="E31">
-        <v>2.0219999999999998</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>2.1752811889815873</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>0.19721497633559271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>34536</v>
-      </c>
-      <c r="B32">
-        <v>10.964</v>
-      </c>
-      <c r="C32">
-        <v>4.7839999999999998</v>
-      </c>
-      <c r="D32">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="E32">
-        <v>2.125</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
-        <v>2.2860892811997395</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>0.2085086903684549</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>33536</v>
-      </c>
-      <c r="B33">
-        <v>10.927</v>
-      </c>
-      <c r="C33">
-        <v>4.9189999999999996</v>
-      </c>
-      <c r="D33">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="E33">
-        <v>2.2450000000000001</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>2.41518608766749</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>0.22102920176329185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32536</v>
-      </c>
-      <c r="B34">
-        <v>10.845000000000001</v>
-      </c>
-      <c r="C34">
-        <v>5.05</v>
-      </c>
-      <c r="D34">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="E34">
-        <v>2.3690000000000002</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
-        <v>2.548586121017498</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>0.23500102545112936</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>31536</v>
-      </c>
-      <c r="B35">
-        <v>10.779</v>
-      </c>
-      <c r="C35">
-        <v>5.1859999999999999</v>
-      </c>
-      <c r="D35">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="E35">
-        <v>2.4940000000000002</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
-        <v>2.6830619610880713</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="0"/>
-        <v>0.24891566574710747</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>30536</v>
-      </c>
-      <c r="B36">
-        <v>10.705</v>
-      </c>
-      <c r="C36">
-        <v>5.3049999999999997</v>
-      </c>
-      <c r="D36">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="E36">
-        <v>2.613</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
-        <v>2.8110829608352561</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="0"/>
-        <v>0.2625953256268338</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>29536</v>
-      </c>
-      <c r="B37">
-        <v>10.643000000000001</v>
-      </c>
-      <c r="C37">
-        <v>5.444</v>
-      </c>
-      <c r="D37">
-        <v>0.505</v>
-      </c>
-      <c r="E37">
-        <v>2.7509999999999999</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
-        <v>2.9595442882731686</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="0"/>
-        <v>0.27807425427728727</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>28536</v>
-      </c>
-      <c r="B38">
-        <v>10.557</v>
-      </c>
-      <c r="C38">
-        <v>5.5469999999999997</v>
-      </c>
-      <c r="D38">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="E38">
-        <v>2.8620000000000001</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
-        <v>3.0789588342558378</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="0"/>
-        <v>0.29165092680267479</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>27536</v>
-      </c>
-      <c r="B39">
-        <v>10.52</v>
-      </c>
-      <c r="C39">
-        <v>5.67</v>
-      </c>
-      <c r="D39">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="E39">
-        <v>2.992</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
-        <v>3.2188137079292334</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="0"/>
-        <v>0.30597088478414769</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>26536</v>
-      </c>
-      <c r="B40">
-        <v>10.478999999999999</v>
-      </c>
-      <c r="C40">
-        <v>5.7889999999999997</v>
-      </c>
-      <c r="D40">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="E40">
-        <v>3.117</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="1"/>
-        <v>3.3532895479998062</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="0"/>
-        <v>0.32000091115562612</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>25536</v>
-      </c>
-      <c r="B41">
-        <v>10.401</v>
-      </c>
-      <c r="C41">
-        <v>5.8959999999999999</v>
-      </c>
-      <c r="D41">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="E41">
-        <v>3.2330000000000001</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="1"/>
-        <v>3.4780831275852981</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="0"/>
-        <v>0.3343989162181808</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>24536</v>
-      </c>
-      <c r="B42">
-        <v>10.331</v>
-      </c>
-      <c r="C42">
-        <v>6.0110000000000001</v>
-      </c>
-      <c r="D42">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E42">
-        <v>3.363</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="1"/>
-        <v>3.6179380012586937</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="0"/>
-        <v>0.35020211027574233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>23536</v>
-      </c>
-      <c r="B43">
-        <v>10.253</v>
-      </c>
-      <c r="C43">
-        <v>6.109</v>
-      </c>
-      <c r="D43">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="E43">
-        <v>3.4740000000000002</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="1"/>
-        <v>3.7373525472413629</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="0"/>
-        <v>0.36451307395312227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>22536</v>
-      </c>
-      <c r="B44">
-        <v>10.17</v>
-      </c>
-      <c r="C44">
-        <v>6.2069999999999999</v>
-      </c>
-      <c r="D44">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="E44">
-        <v>3.5960000000000001</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="1"/>
-        <v>3.8686009671502419</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="0"/>
-        <v>0.38039340876600214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>21536</v>
-      </c>
-      <c r="B45">
-        <v>10.064</v>
-      </c>
-      <c r="C45">
-        <v>6.2160000000000002</v>
-      </c>
-      <c r="D45">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="E45">
-        <v>3.6589999999999998</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="1"/>
-        <v>3.9363767905458102</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="0"/>
-        <v>0.39113441877442473</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>20536</v>
-      </c>
-      <c r="B46">
-        <v>9.99</v>
-      </c>
-      <c r="C46">
-        <v>6.3719999999999999</v>
-      </c>
-      <c r="D46">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="E46">
-        <v>3.81</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="1"/>
-        <v>4.0988236053510629</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="0"/>
-        <v>0.41029265318829455</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>19536</v>
-      </c>
-      <c r="B47">
-        <v>9.9030000000000005</v>
-      </c>
-      <c r="C47">
-        <v>6.47</v>
-      </c>
-      <c r="D47">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="E47">
-        <v>3.9260000000000002</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="1"/>
-        <v>4.223617184936554</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="0"/>
-        <v>0.42649875643103646</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>18536</v>
-      </c>
-      <c r="B48">
-        <v>9.5419999999999998</v>
-      </c>
-      <c r="C48">
-        <v>6.3470000000000004</v>
-      </c>
-      <c r="D48">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="E48">
-        <v>3.8420000000000001</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="1"/>
-        <v>4.133249420409129</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="0"/>
-        <v>0.43316384619672282</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>17536</v>
-      </c>
-      <c r="B49" s="1">
-        <v>9.5790000000000006</v>
-      </c>
-      <c r="C49" s="1">
-        <v>6.5359999999999996</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="E49" s="1">
-        <v>3.9969999999999999</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49">
-        <f t="shared" si="1"/>
-        <v>4.2999994620966397</v>
-      </c>
-      <c r="H49" s="1">
-        <f t="shared" si="0"/>
-        <v>0.44889857627065866</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>16536</v>
-      </c>
-      <c r="B50">
-        <v>8.8960000000000008</v>
-      </c>
-      <c r="C50">
-        <v>6.2279999999999998</v>
-      </c>
-      <c r="D50">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="E50">
-        <v>3.661</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="1"/>
-        <v>3.9385284039869397</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="0"/>
-        <v>0.44273026123953907</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>15536</v>
-      </c>
-      <c r="B51">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="C51">
-        <v>6.298</v>
-      </c>
-      <c r="D51">
-        <v>0.59</v>
-      </c>
-      <c r="E51">
-        <v>3.7160000000000002</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="1"/>
-        <v>3.9976977736179919</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="0"/>
-        <v>0.45019119072274683</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>14536</v>
-      </c>
-      <c r="B52">
-        <v>8.2710000000000008</v>
-      </c>
-      <c r="C52">
-        <v>6.06</v>
-      </c>
-      <c r="D52">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="E52">
-        <v>3.4470000000000001</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="1"/>
-        <v>3.7083057657861191</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="0"/>
-        <v>0.44835035253126815</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>13536</v>
-      </c>
-      <c r="B53">
-        <v>8.23</v>
-      </c>
-      <c r="C53">
-        <v>6.117</v>
-      </c>
-      <c r="D53">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E53">
-        <v>3.49</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="1"/>
-        <v>3.7545654547703964</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="0"/>
-        <v>0.45620479401827413</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>12536</v>
-      </c>
-      <c r="B54">
-        <v>7.6790000000000003</v>
-      </c>
-      <c r="C54">
-        <v>5.8380000000000001</v>
-      </c>
-      <c r="D54">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="E54">
-        <v>3.206</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="1"/>
-        <v>3.4490363461300544</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="0"/>
-        <v>0.44915175753744685</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>11536</v>
-      </c>
-      <c r="B55">
-        <v>7.6459999999999999</v>
-      </c>
-      <c r="C55">
-        <v>5.92</v>
-      </c>
-      <c r="D55">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="E55">
-        <v>3.2669999999999999</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="1"/>
-        <v>3.5146605560844937</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="0"/>
-        <v>0.45967310437934789</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>10536</v>
-      </c>
-      <c r="B56">
-        <v>7.157</v>
-      </c>
-      <c r="C56">
-        <v>5.6539999999999999</v>
-      </c>
-      <c r="D56">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="E56">
-        <v>3.0089999999999999</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="1"/>
-        <v>3.2371024221788312</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="0"/>
-        <v>0.4522987875057749</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>9536</v>
-      </c>
-      <c r="B57">
-        <v>7.157</v>
-      </c>
-      <c r="C57">
-        <v>5.7279999999999998</v>
-      </c>
-      <c r="D57">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="E57">
-        <v>3.0569999999999999</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="1"/>
-        <v>3.2887411447659312</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="0"/>
-        <v>0.45951392270028379</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>8536</v>
-      </c>
-      <c r="B58">
-        <v>6.6879999999999997</v>
-      </c>
-      <c r="C58">
-        <v>5.4729999999999999</v>
-      </c>
-      <c r="D58">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="E58">
-        <v>2.827</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="1"/>
-        <v>3.0413055990360771</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="0"/>
-        <v>0.45474066971233212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>7536</v>
-      </c>
-      <c r="B59">
-        <v>6.66</v>
-      </c>
-      <c r="C59">
-        <v>5.5679999999999996</v>
-      </c>
-      <c r="D59">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="E59">
-        <v>2.88</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="1"/>
-        <v>3.0983233552259999</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="0"/>
-        <v>0.46521371700090086</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>6536</v>
-      </c>
-      <c r="B60">
-        <v>6.298</v>
-      </c>
-      <c r="C60">
-        <v>5.3380000000000001</v>
-      </c>
-      <c r="D60">
-        <v>0.501</v>
-      </c>
-      <c r="E60">
-        <v>2.6749999999999998</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="1"/>
-        <v>2.8777829775102601</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="0"/>
-        <v>0.45693600786126709</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>5536</v>
-      </c>
-      <c r="B61">
-        <v>6.2569999999999997</v>
-      </c>
-      <c r="C61">
-        <v>5.3869999999999996</v>
-      </c>
-      <c r="D61">
-        <v>0.501</v>
-      </c>
-      <c r="E61">
-        <v>2.7010000000000001</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="1"/>
-        <v>2.9057539522449396</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="0"/>
-        <v>0.46440050379494002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>4536</v>
-      </c>
-      <c r="B62">
-        <v>5.9109999999999996</v>
-      </c>
-      <c r="C62">
-        <v>5.1689999999999996</v>
-      </c>
-      <c r="D62">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="E62">
-        <v>2.516</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="1"/>
-        <v>2.7067297089404918</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="0"/>
-        <v>0.45791400929461884</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>3536</v>
-      </c>
-      <c r="B63">
-        <v>5.8209999999999997</v>
-      </c>
-      <c r="C63">
-        <v>5.2060000000000004</v>
-      </c>
-      <c r="D63">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="E63">
-        <v>2.524</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="1"/>
-        <v>2.7153361627050083</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="0"/>
-        <v>0.46647245536935378</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>2536</v>
-      </c>
-      <c r="B64">
-        <v>5.5659999999999998</v>
-      </c>
-      <c r="C64">
-        <v>5.0259999999999998</v>
-      </c>
-      <c r="D64">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="E64">
-        <v>2.3719999999999999</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="1"/>
-        <v>2.5518135411791918</v>
-      </c>
-      <c r="H64">
-        <f t="shared" si="0"/>
-        <v>0.4584645241069335</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>1536</v>
-      </c>
-      <c r="B65">
-        <v>5.492</v>
-      </c>
-      <c r="C65">
-        <v>5.0419999999999998</v>
-      </c>
-      <c r="D65">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="E65">
-        <v>2.3650000000000002</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="1"/>
-        <v>2.54428289413524</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="0"/>
-        <v>0.46327073818922798</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Data/Stuff/PV Array Characterisation.xlsx
+++ b/Data/Stuff/PV Array Characterisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/iam22_ic_ac_uk/Documents/Year 2 Project Power Grid/QuintupleE/Data/Stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="715" documentId="8_{421C8579-E8E8-429A-885D-0A0DAAC444CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62B245EB-B19D-4200-8B33-962C0B4187E7}"/>
+  <xr:revisionPtr revIDLastSave="723" documentId="8_{421C8579-E8E8-429A-885D-0A0DAAC444CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87BDE2EC-44D3-4335-8968-6C01F3902C6A}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" activeTab="1" xr2:uid="{14AC25DF-5AF7-4C6D-9280-F67FBB861D4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{14AC25DF-5AF7-4C6D-9280-F67FBB861D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="IV" sheetId="11" r:id="rId1"/>
@@ -33,6 +33,11 @@
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">(MPPT!$B$1,MPPT!$C$1,MPPT!$D$1,MPPT!$E$1,MPPT!$F$1)</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">(MPPT!$B$2,MPPT!$C$2,MPPT!$D$2,MPPT!$E$2,MPPT!$F$2)</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">(MPPT!$B$3,MPPT!$C$3,MPPT!$D$3,MPPT!$E$3,MPPT!$F$3)</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1952,6 +1957,682 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'Boost_CL 75R'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Boost_CL 75R'!$B$2:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>5.7430000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.415</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.3140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.758</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3579999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.8070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.3659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.8919999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.5830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.593999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.276</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.782</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.645</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.896000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.365</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.595000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.298</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.91</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.840999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.407999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.234999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.728</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15.468999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15.852</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.56</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15.868</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.506</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.773999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15.436999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.58</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15.227</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15.317</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.968</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.000999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.725</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14.676</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.413</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14.29</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14.051</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13.952999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.706</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.57</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.365</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.204000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.863</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12.678000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.538</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12.340999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12.189</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12.004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11.815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Boost_CL 75R'!$E$2:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>2.3525309999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3418299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.331153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3398219999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.331153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3371650000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3438379999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3411729999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3451810000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3438379999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3458459999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3478539999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3563879999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3365</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.355702</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3577059999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3694999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3675000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4233370000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4535</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.485519</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5806360000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4008180000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8520050000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.981433</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2322899999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3212799999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.6375000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.6883080000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.9667319999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9588100000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.1889539999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.1291250000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.2605199999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.1749859999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.207344</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.128037</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.0479269999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0001189999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.830756</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8116349999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5837639999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.5849009999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.3390900000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.3579560000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.1378560000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.1231749999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.9313419999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.917888</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.7456320000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.717679</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.5736430000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.5381399999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.4150879999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.3761549999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.2705799999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.2232400000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1376230000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0908989999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.0118839999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.971312</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.891267</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-050E-4C66-9F18-EEDC13AB2784}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1870404111"/>
+        <c:axId val="1870403151"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1870404111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1870403151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1870403151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1870404111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'Boost_CL 75R'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -2573,7 +3254,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3252,7 +3933,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3931,7 +4612,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4607,7 +5288,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5289,7 +5970,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5971,7 +6652,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6785,7 +7466,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7461,7 +8142,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8137,7 +8818,412 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Incremental Conductance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>(MPPT!$B$1,MPPT!$C$1,MPPT!$D$1,MPPT!$E$1,MPPT!$F$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0R5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2R2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10R</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75R</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(MPPT!$B$2,MPPT!$C$2,MPPT!$D$2,MPPT!$E$2,MPPT!$F$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A2A-4AF7-A62A-05116757686D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>P&amp;O</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>(MPPT!$B$1,MPPT!$C$1,MPPT!$D$1,MPPT!$E$1,MPPT!$F$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0R5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2R2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10R</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75R</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(MPPT!$B$3,MPPT!$C$3,MPPT!$D$3,MPPT!$E$3,MPPT!$F$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A2A-4AF7-A62A-05116757686D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="889670768"/>
+        <c:axId val="889669808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="889670768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="889669808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="889669808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="889670768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8813,2449 +9899,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Duty Vs Power</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Out</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Power Consumption'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>120R</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Power Consumption'!$A$2:$A$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="1">
-                  <c:v>63536</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62536</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>61536</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60536</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59536</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58536</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57536</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>56536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55536</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>54536</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>53536</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>52536</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>51536</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50536</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>49536</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>48536</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>47536</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>46536</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45536</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44536</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43536</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42536</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>41536</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40536</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>39536</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>38536</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37536</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>36536</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>35536</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>34536</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33536</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32536</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>31536</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>30536</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>29536</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>28536</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>27536</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>26536</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>25536</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>24536</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>23536</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>22536</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>21536</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>20536</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>19536</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>18536</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>17536</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>16536</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>15536</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>14536</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>13536</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12536</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>11536</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10536</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9536</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8536</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7536</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>6536</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5536</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4536</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3536</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2536</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1536</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Power Consumption'!$B$2:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="1">
-                  <c:v>1.4103319999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3922999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3971959999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3987259999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3987259999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3971959999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4011739999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4057529999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4011739999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.402398</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.412496</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.4036219999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4060699999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.3987259999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.4097420000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.412496</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.4103199999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.41154</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.4176399999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.429408</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.4371290000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.4460040000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.4636049999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.4714699999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.4732830000000003</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.4447880000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.3808639999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.3453309999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.270308</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.2287969999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.154223</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.124417</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.0582100000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.0319449999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.96239999999999992</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.92815800000000004</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.87753999999999988</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.85727999999999993</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.80797200000000013</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.77736700000000003</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.74318200000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.71861400000000009</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.68398199999999998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.65582200000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.62650300000000003</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.60711000000000004</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.58430400000000005</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.56015999999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.53629599999999988</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.52416000000000007</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.50024000000000002</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.48835800000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.470775</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.45316799999999996</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.43428600000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.42196600000000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.40937000000000001</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.39677400000000002</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.38417800000000002</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.37158199999999997</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.35898600000000003</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.34660999999999997</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.34073999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7263-491F-A44A-A43D769704C5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Power Consumption'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>75R</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Power Consumption'!$A$2:$A$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="1">
-                  <c:v>63536</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62536</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>61536</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60536</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59536</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58536</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57536</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>56536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55536</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>54536</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>53536</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>52536</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>51536</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50536</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>49536</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>48536</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>47536</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>46536</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45536</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44536</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43536</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42536</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>41536</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40536</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>39536</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>38536</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37536</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>36536</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>35536</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>34536</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33536</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32536</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>31536</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>30536</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>29536</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>28536</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>27536</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>26536</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>25536</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>24536</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>23536</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>22536</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>21536</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>20536</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>19536</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>18536</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>17536</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>16536</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>15536</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>14536</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>13536</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12536</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>11536</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10536</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9536</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8536</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7536</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>6536</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5536</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4536</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3536</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2536</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1536</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Power Consumption'!$C$2:$C$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="1">
-                  <c:v>2.3525309999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3418299999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.331153</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3398219999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.331153</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.3371650000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.3438379999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.3411729999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3451810000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.3438379999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.3458459999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.3478539999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.3563879999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.3365</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.355702</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.3577059999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.3694999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.3675000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.3919999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.4233370000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.4535</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.485519</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.5806360000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.4008180000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.8520050000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.981433</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.2322899999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.3212799999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.6375000000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.6883080000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.9667319999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.9588100000000002</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.1889539999999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.1291250000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.2605199999999996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.1749859999999996</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.207344</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.128037</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.0479269999999996</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.0001189999999998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.830756</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.8116349999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.5837639999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.5849009999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.3390900000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.3579560000000002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.1378560000000002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.1231749999999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.9313419999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.917888</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.7456320000000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.717679</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.5736430000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.5381399999999998</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.4150879999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.3761549999999998</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.2705799999999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.2232400000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.1376230000000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.0908989999999998</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.0118839999999998</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.971312</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.891267</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7263-491F-A44A-A43D769704C5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Power Consumption'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10R</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Power Consumption'!$A$2:$A$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="1">
-                  <c:v>63536</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62536</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>61536</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60536</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59536</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58536</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57536</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>56536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55536</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>54536</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>53536</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>52536</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>51536</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50536</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>49536</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>48536</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>47536</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>46536</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45536</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44536</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43536</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42536</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>41536</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40536</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>39536</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>38536</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37536</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>36536</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>35536</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>34536</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33536</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32536</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>31536</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>30536</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>29536</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>28536</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>27536</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>26536</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>25536</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>24536</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>23536</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>22536</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>21536</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>20536</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>19536</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>18536</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>17536</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>16536</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>15536</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>14536</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>13536</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12536</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>11536</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10536</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9536</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8536</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7536</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>6536</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5536</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4536</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3536</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2536</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1536</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Power Consumption'!$D$2:$D$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="1">
-                  <c:v>-1.3100000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.4850000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3604E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.1382000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.4677999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.3420000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12904199999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.172484</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.220383</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.272866</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.331625</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.39782400000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.45759</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.53821699999999995</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.61916400000000005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.70408000000000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.79267200000000004</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.89423600000000003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.99726999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.0995980000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.2065760000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.330095</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.446375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.565564</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.702358</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.8204039999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.9550240000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.0836199999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.2166549999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.3455460000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.4716939999999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.6310500000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.7426849999999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.8608319999999998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.9677340000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.0709919999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.1721149999999998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.2396159999999998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.3243619999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.3337140000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.4089160000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.3522500000000002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.4102000000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.2854800000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.3370479999999998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.15835</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.2099199999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.9696669999999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.0262720000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.7904300000000002</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.8293539999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.607056</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.6333579999999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.4373239999999998</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.4544100000000002</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.2967</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.30945</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.1639339999999998</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.155348</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.0338500000000002</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.0121060000000002</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.906066</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.8694059999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7263-491F-A44A-A43D769704C5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Power Consumption'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2R2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Power Consumption'!$A$2:$A$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="1">
-                  <c:v>63536</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62536</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>61536</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60536</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59536</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58536</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57536</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>56536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55536</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>54536</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>53536</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>52536</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>51536</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50536</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>49536</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>48536</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>47536</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>46536</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45536</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44536</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43536</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42536</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>41536</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40536</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>39536</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>38536</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37536</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>36536</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>35536</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>34536</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33536</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32536</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>31536</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>30536</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>29536</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>28536</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>27536</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>26536</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>25536</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>24536</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>23536</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>22536</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>21536</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>20536</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>19536</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>18536</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>17536</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>16536</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>15536</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>14536</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>13536</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12536</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>11536</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10536</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9536</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8536</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7536</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>6536</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5536</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4536</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3536</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2536</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1536</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Power Consumption'!$E$2:$E$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="1">
-                  <c:v>-4.9200000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.8654999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.2479999999999989E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13627600000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.22458</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.33285999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.46585699999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.63126000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.81081999999999987</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.00288</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.219884</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.4930239999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.706734</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.9273750000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.2048100000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.4802399999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.7338050000000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.033919</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.2415600000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.5263800000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.7443659999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.8897029999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.9862679999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.0339200000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.9579089999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.9173109999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.7515800000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.609216</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.3944800000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.2465690000000005</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.0111479999999995</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.866765</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.6582220000000003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.544918</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.3809049999999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.2451220000000003</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.1360239999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.0081000000000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.9285870000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.8633440000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.8214240000000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.7166779999999997</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.6442300000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.5793400000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.5136799999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.455638</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.39629</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.3278799999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.3066199999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.239986</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.2017279999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.1539699999999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.1169550000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.0762560000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.0326660000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.005009</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.97102200000000005</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.93922000000000005</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.90097000000000005</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.879</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.87553199999999998</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.80812799999999996</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.78139499999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7263-491F-A44A-A43D769704C5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Power Consumption'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0R5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Power Consumption'!$A$2:$A$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="1">
-                  <c:v>63536</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62536</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>61536</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60536</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59536</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58536</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57536</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>56536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55536</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>54536</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>53536</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>52536</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>51536</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50536</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>49536</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>48536</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>47536</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>46536</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45536</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44536</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43536</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42536</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>41536</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40536</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>39536</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>38536</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37536</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>36536</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>35536</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>34536</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33536</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32536</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>31536</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>30536</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>29536</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>28536</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>27536</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>26536</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>25536</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>24536</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>23536</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>22536</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>21536</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>20536</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>19536</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>18536</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>17536</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>16536</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>15536</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>14536</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>13536</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12536</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>11536</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10536</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9536</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8536</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7536</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>6536</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5536</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4536</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3536</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2536</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1536</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Power Consumption'!$F$2:$F$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="1">
-                  <c:v>-9.1700000000000006E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5520000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14285900000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.286192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.47724900000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.73167599999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.98180299999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3224960000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.645718</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0491390000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.2655609999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.686544</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.865021</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.1878379999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.0194490000000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.126188</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.6671519999999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.5858690000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.0253700000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.0866900000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.014645</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.1502749999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.84853600000000007</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.85178799999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.71101999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.70848</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.62729999999999997</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.59928000000000003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.54367200000000004</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.52550399999999997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.48216000000000003</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.46192699999999998</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.43144499999999997</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.41558199999999995</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.38281399999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.36691200000000007</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.35066100000000006</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.34058700000000003</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.318573</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.30602999999999997</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.29027999999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.27781599999999995</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.267036</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.25153200000000003</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.24556500000000003</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.23796500000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.22886400000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.21706500000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.21118999999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.20687999999999998</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.19081999999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.20422300000000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.18310600000000002</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.174542</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.172732</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.164822</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.16250600000000001</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.159804</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.153062</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.147231</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.14427899999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.138263</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.132022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7263-491F-A44A-A43D769704C5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="902818751"/>
-        <c:axId val="902817791"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="902818751"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="902817791"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="902817791"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="902818751"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12056,7 +10700,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12732,7 +11376,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13408,7 +12052,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -15432,7 +14076,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -16330,7 +14974,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -17645,6 +16289,2448 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
+              <a:t>Duty Vs Power</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Out</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Power Consumption'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>120R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Power Consumption'!$A$2:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>63536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54536</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53536</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52536</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50536</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49536</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47536</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46536</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44536</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43536</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42536</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41536</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40536</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39536</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38536</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37536</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36536</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35536</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34536</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33536</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32536</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31536</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30536</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29536</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28536</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27536</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26536</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25536</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24536</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23536</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22536</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21536</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20536</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19536</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18536</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17536</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16536</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15536</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14536</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13536</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12536</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11536</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10536</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9536</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8536</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7536</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6536</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5536</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4536</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2536</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Power Consumption'!$B$2:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>1.4103319999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3922999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3971959999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3987259999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3987259999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3971959999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4011739999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4057529999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4011739999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.402398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.412496</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4036219999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4060699999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3987259999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4097420000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.412496</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4103199999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.41154</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4176399999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.429408</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4371290000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4460040000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4636049999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4714699999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.4732830000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4447880000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3808639999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3453309999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.270308</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2287969999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.154223</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.124417</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0582100000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0319449999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.96239999999999992</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92815800000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.87753999999999988</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.85727999999999993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.80797200000000013</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77736700000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.74318200000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.71861400000000009</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.68398199999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.65582200000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.62650300000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.60711000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.58430400000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.56015999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.53629599999999988</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.52416000000000007</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.50024000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.48835800000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.470775</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.45316799999999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.43428600000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.42196600000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.40937000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.39677400000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.38417800000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.37158199999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.35898600000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.34660999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.34073999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7263-491F-A44A-A43D769704C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Power Consumption'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Power Consumption'!$A$2:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>63536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54536</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53536</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52536</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50536</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49536</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47536</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46536</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44536</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43536</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42536</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41536</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40536</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39536</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38536</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37536</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36536</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35536</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34536</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33536</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32536</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31536</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30536</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29536</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28536</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27536</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26536</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25536</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24536</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23536</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22536</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21536</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20536</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19536</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18536</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17536</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16536</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15536</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14536</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13536</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12536</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11536</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10536</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9536</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8536</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7536</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6536</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5536</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4536</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2536</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Power Consumption'!$C$2:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>2.3525309999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3418299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.331153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3398219999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.331153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3371650000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3438379999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3411729999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3451810000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3438379999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3458459999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3478539999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3563879999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3365</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.355702</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3577059999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3694999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3675000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4233370000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4535</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.485519</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5806360000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4008180000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8520050000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.981433</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2322899999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3212799999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.6375000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.6883080000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.9667319999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9588100000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.1889539999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.1291250000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.2605199999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.1749859999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.207344</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.128037</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.0479269999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0001189999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.830756</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8116349999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5837639999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.5849009999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.3390900000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.3579560000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.1378560000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.1231749999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.9313419999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.917888</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.7456320000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.717679</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.5736430000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.5381399999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.4150879999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.3761549999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.2705799999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.2232400000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1376230000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0908989999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.0118839999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.971312</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.891267</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7263-491F-A44A-A43D769704C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Power Consumption'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Power Consumption'!$A$2:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>63536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54536</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53536</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52536</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50536</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49536</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47536</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46536</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44536</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43536</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42536</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41536</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40536</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39536</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38536</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37536</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36536</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35536</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34536</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33536</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32536</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31536</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30536</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29536</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28536</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27536</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26536</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25536</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24536</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23536</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22536</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21536</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20536</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19536</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18536</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17536</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16536</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15536</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14536</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13536</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12536</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11536</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10536</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9536</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8536</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7536</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6536</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5536</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4536</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2536</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Power Consumption'!$D$2:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>-1.3100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4850000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3604E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1382000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4677999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3420000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12904199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.172484</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.220383</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.272866</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.331625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39782400000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45759</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.53821699999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.61916400000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70408000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79267200000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89423600000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99726999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0995980000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2065760000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.330095</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.446375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.565564</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.702358</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8204039999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9550240000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0836199999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2166549999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.3455460000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4716939999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6310500000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7426849999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8608319999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9677340000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0709919999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1721149999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.2396159999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.3243619999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.3337140000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.4089160000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.3522500000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.4102000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.2854800000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.3370479999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.15835</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.2099199999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.9696669999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.0262720000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.7904300000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.8293539999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.607056</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.6333579999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.4373239999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.4544100000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.2967</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.30945</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.1639339999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.155348</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0338500000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.0121060000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.906066</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.8694059999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7263-491F-A44A-A43D769704C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Power Consumption'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2R2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Power Consumption'!$A$2:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>63536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54536</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53536</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52536</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50536</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49536</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47536</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46536</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44536</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43536</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42536</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41536</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40536</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39536</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38536</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37536</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36536</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35536</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34536</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33536</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32536</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31536</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30536</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29536</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28536</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27536</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26536</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25536</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24536</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23536</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22536</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21536</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20536</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19536</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18536</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17536</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16536</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15536</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14536</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13536</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12536</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11536</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10536</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9536</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8536</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7536</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6536</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5536</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4536</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2536</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Power Consumption'!$E$2:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>-4.9200000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8654999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2479999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13627600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22458</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33285999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46585699999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63126000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81081999999999987</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.00288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.219884</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4930239999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.706734</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9273750000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2048100000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4802399999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7338050000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.033919</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2415600000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5263800000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7443659999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8897029999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.9862679999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0339200000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.9579089999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.9173109999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7515800000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.609216</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3944800000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.2465690000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0111479999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.866765</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.6582220000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.544918</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.3809049999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.2451220000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.1360239999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0081000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9285870000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8633440000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.8214240000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7166779999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.6442300000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5793400000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5136799999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.455638</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.39629</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.3278799999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3066199999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.239986</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2017279999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1539699999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1169550000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0762560000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0326660000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.005009</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.97102200000000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.93922000000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.90097000000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.879</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.87553199999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.80812799999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.78139499999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7263-491F-A44A-A43D769704C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Power Consumption'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0R5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Power Consumption'!$A$2:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>63536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54536</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53536</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52536</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50536</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49536</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47536</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46536</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44536</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43536</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42536</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41536</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40536</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39536</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38536</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37536</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36536</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35536</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34536</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33536</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32536</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31536</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30536</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29536</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28536</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27536</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26536</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25536</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24536</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23536</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22536</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21536</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20536</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19536</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18536</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17536</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16536</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15536</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14536</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13536</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12536</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11536</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10536</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9536</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8536</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7536</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6536</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5536</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4536</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2536</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Power Consumption'!$F$2:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>-9.1700000000000006E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5520000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14285900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.286192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47724900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73167599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98180299999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3224960000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.645718</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0491390000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2655609999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.686544</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.865021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1878379999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0194490000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.126188</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6671519999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5858690000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0253700000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0866900000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.014645</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1502749999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.84853600000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.85178799999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.71101999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.70848</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.62729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.59928000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.54367200000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.52550399999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.48216000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.46192699999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.43144499999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.41558199999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.38281399999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36691200000000007</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.35066100000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34058700000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.318573</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.30602999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.29027999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.27781599999999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.267036</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.25153200000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.24556500000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.23796500000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.22886400000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.21706500000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.21118999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.20687999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.19081999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.20422300000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.18310600000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.174542</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.172732</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.164822</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.16250600000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.159804</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.153062</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.147231</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.14427899999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.138263</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.132022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7263-491F-A44A-A43D769704C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="902818751"/>
+        <c:axId val="902817791"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="902818751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="902817791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="902817791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="902818751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
               <a:t>Power In Vs Duty Cycle</a:t>
             </a:r>
           </a:p>
@@ -18311,7 +19397,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -19012,7 +20098,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -19713,7 +20799,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -20389,7 +21475,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -21065,7 +22151,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -21686,682 +22772,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1244203455"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Boost_CL 75R'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pi</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Boost_CL 75R'!$B$2:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="1">
-                  <c:v>5.7430000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.93</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9460000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.9460000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.9630000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0819999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.415</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.7809999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.3109999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.7759999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.3140000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.758</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.3579999999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.8070000000000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.3659999999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.8919999999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.5830000000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.006</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10.593999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11.276</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11.782</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12.041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12.645</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12.896000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13.365</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13.595000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14.24</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14.298</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14.91</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>14.840999999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15.407999999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15.234999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>15.728</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>15.468999999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>15.852</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>15.56</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>15.868</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>15.506</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>15.773999999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>15.436999999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>15.58</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>15.227</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>15.317</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>14.968</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>15.000999999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>14.725</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>14.676</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>14.413</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>14.29</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>14.051</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>13.952999999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>13.706</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>13.57</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>13.365</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>13.204000000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>13.015000000000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>12.863</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>12.678000000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>12.538</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>12.340999999999999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>12.189</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>12.004</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>11.815</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Boost_CL 75R'!$E$2:$E$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="1">
-                  <c:v>2.3525309999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3418299999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.331153</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3398219999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.331153</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.3371650000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.3438379999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.3411729999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3451810000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.3438379999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.3458459999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.3478539999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.3563879999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.3365</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.355702</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.3577059999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.3694999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.3675000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.3919999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.4233370000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.4535</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.485519</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.5806360000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.4008180000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.8520050000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.981433</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.2322899999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.3212799999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.6375000000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.6883080000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.9667319999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.9588100000000002</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.1889539999999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.1291250000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.2605199999999996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.1749859999999996</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.207344</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.128037</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.0479269999999996</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.0001189999999998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.830756</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.8116349999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.5837639999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.5849009999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.3390900000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.3579560000000002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.1378560000000002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.1231749999999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.9313419999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.917888</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.7456320000000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.717679</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.5736430000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.5381399999999998</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.4150879999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.3761549999999998</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.2705799999999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.2232400000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.1376230000000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.0908989999999998</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.0118839999999998</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.971312</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.891267</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-050E-4C66-9F18-EEDC13AB2784}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1870404111"/>
-        <c:axId val="1870403151"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1870404111"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1870403151"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1870403151"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1870404111"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -23097,6 +23507,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -32149,6 +32599,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -35806,6 +36772,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>242886</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFACFB5-C025-279D-07D7-C8AA910631EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -35849,6 +36856,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BE8544-DE18-0CFD-778C-52D534CC23B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>382874</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -35886,7 +36934,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -35999,7 +37047,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -36190,7 +37238,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -36309,7 +37357,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -36426,7 +37474,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -36545,7 +37593,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -36686,47 +37734,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>242886</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFACFB5-C025-279D-07D7-C8AA910631EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -45705,8 +46712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D942DA4C-3787-4293-9638-544A0669DA5E}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F3"/>
+    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="C25" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45742,13 +46749,13 @@
         <v>3.5</v>
       </c>
       <c r="D2">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="E2">
+        <v>0.4</v>
+      </c>
+      <c r="F2">
         <v>0.3</v>
-      </c>
-      <c r="F2">
-        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -45773,6 +46780,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data/Stuff/PV Array Characterisation.xlsx
+++ b/Data/Stuff/PV Array Characterisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/iam22_ic_ac_uk/Documents/Year 2 Project Power Grid/QuintupleE/Data/Stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="723" documentId="8_{421C8579-E8E8-429A-885D-0A0DAAC444CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87BDE2EC-44D3-4335-8968-6C01F3902C6A}"/>
+  <xr:revisionPtr revIDLastSave="774" documentId="8_{421C8579-E8E8-429A-885D-0A0DAAC444CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DACD0FAA-F5B0-44B2-8CEF-9B084798E75B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{14AC25DF-5AF7-4C6D-9280-F67FBB861D4B}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="4365" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{14AC25DF-5AF7-4C6D-9280-F67FBB861D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="IV" sheetId="11" r:id="rId1"/>
@@ -33,12 +33,7 @@
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
   </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">(MPPT!$B$1,MPPT!$C$1,MPPT!$D$1,MPPT!$E$1,MPPT!$F$1)</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">(MPPT!$B$2,MPPT!$C$2,MPPT!$D$2,MPPT!$E$2,MPPT!$F$2)</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">(MPPT!$B$3,MPPT!$C$3,MPPT!$D$3,MPPT!$E$3,MPPT!$F$3)</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1957,6 +1952,682 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'[1]75R'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]75R'!$C$2:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>4.6769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6609999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6689999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.673</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.681</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6689999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.673</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.694</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.673</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.702</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.7389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.907</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.9809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.1820000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.383</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.7850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0970000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.61</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.8479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.6680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.3160000000000007</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.423</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.0670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.0749999999999993</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.6829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.6419999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.212</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.093</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.569000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.499000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.852</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.737</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.061</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.962999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.205</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.156000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.327999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.275</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.406000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.398</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.488</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11.467000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.541</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.537000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11.611000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11.590999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11.644</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11.64</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11.680999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.680999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.696999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11.734</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11.747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]75R'!$E$2:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>2.3525309999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3418299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.331153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3398219999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.331153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3371650000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3438379999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3411729999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3451810000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3438379999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3458459999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3478539999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3563879999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3365</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.355702</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3577059999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3694999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3675000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4233370000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4535</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.485519</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5806360000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4008180000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8520050000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.981433</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2322899999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3212799999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.6375000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.6883080000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.9667319999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9588100000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.1889539999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.1291250000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.2605199999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.1749859999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.207344</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.128037</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.0479269999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0001189999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.830756</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8116349999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5837639999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.5849009999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.3390900000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.3579560000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.1378560000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.1231749999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.9313419999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.917888</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.7456320000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.717679</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.5736430000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.5381399999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.4150879999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.3761549999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.2705799999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.2232400000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1376230000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0908989999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.0118839999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.971312</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.891267</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41E8-4572-B95D-C273D535ADF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1244203455"/>
+        <c:axId val="1244201535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1244203455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1244201535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1244201535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1244203455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'Boost_CL 75R'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -2578,7 +3249,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3254,7 +3925,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3933,7 +4604,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4612,7 +5283,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5288,7 +5959,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5970,7 +6641,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6652,7 +7323,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7466,7 +8137,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8087,682 +8758,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1861049199"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[4]0R5'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>I in</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'[4]0R5'!$B$2:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="1">
-                  <c:v>12.115</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.066000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.032999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.955</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.917999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.798</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.686999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.564</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.989000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.462</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.6029999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.4770000000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.3579999999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.4619999999999997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.891</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.4960000000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.2489999999999997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.0970000000000004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.9909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.8920000000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.843</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.8220000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.7770000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.7519999999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.7110000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.7030000000000003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.6859999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.6580000000000004</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.6580000000000004</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.6449999999999996</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.6369999999999996</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.6120000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.5919999999999996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.5880000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.5709999999999997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.5709999999999997</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.5629999999999997</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.5590000000000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.5380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.4930000000000003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.5380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.5179999999999998</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.5220000000000002</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.51</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.51</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.51</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.4930000000000003</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4.4850000000000003</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4.4889999999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>4.4930000000000003</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4.4850000000000003</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4.4930000000000003</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4.4850000000000003</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4.4770000000000003</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4.4560000000000004</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4.4770000000000003</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.4729999999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4.4770000000000003</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4.4770000000000003</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4.4850000000000003</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4.5629999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'[4]0R5'!$H$2:$H$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="1">
-                  <c:v>-1.4072544558028658E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.7715572175709214E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2597185242783927E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.4755593655225571E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.4697021418655307E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.11053753423408084</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.15847629803586058</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.20830959500674404</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.26534489817365758</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.32706436702690289</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.38446191291236048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.4396866621298593</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.4777664699035763</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.49858321558027202</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.50155565201162133</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.50218322085891343</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.49630388963281097</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.48693720066956719</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.46255005198550392</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.43199011673145876</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.40425195795014202</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.37504167528777482</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.35131135848648887</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.33146397363343816</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.30442350435203341</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.28290866047552204</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.26558458366105098</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.24902364240956848</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.23561207018284247</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.22208889377633609</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.21196825384040183</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.20123456455339009</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.18757176957521057</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.1793678999836727</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.16866271282727674</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.15819836493749451</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.1531517623449867</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.14566655008789894</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.14096813837097535</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.13535761522192408</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.12843984383894572</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.11301576524138165</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.1181826829765794</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.1113184175493054</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.10775686578703086</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.10558374395705053</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.10132654104654513</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9.5579914865423304E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9.3961524963149606E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9.2145562380335194E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>8.5904354107709205E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>8.5100415633159371E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>8.2891832308507482E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8.0417856878224767E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7.7322929840876187E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>7.5368094548304509E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7.3482729217941106E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7.0370631080778845E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6.8254307216568416E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6.6224904157369452E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6.4283061114810872E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6.1950620014527266E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>5.9688837327492729E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DE78-4E2D-AD5F-450820FDF5AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="378016447"/>
-        <c:axId val="1591763359"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="378016447"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1591763359"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1591763359"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="378016447"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9278,6 +9273,682 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'[4]0R5'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I in</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[4]0R5'!$B$2:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>12.115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.066000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.032999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.955</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.917999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.686999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.564</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.989000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.462</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.6029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.4770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.3579999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.4960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2489999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0970000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8920000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.843</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.7770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.7519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.7110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.7030000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.6859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6580000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.6580000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.6449999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.6369999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.6120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.5629999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.5590000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.5380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.4930000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.5380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.5179999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.51</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.51</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.4930000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.4850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.4889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.4930000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.4850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.4930000000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.4850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.4770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.4560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.4770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.4729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.4770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.4770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.4850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.5629999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[4]0R5'!$H$2:$H$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>-1.4072544558028658E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7715572175709214E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2597185242783927E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4755593655225571E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4697021418655307E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11053753423408084</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15847629803586058</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20830959500674404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26534489817365758</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32706436702690289</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38446191291236048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4396866621298593</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4777664699035763</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.49858321558027202</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50155565201162133</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50218322085891343</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.49630388963281097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.48693720066956719</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.46255005198550392</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.43199011673145876</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.40425195795014202</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.37504167528777482</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.35131135848648887</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.33146397363343816</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.30442350435203341</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.28290866047552204</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26558458366105098</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.24902364240956848</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.23561207018284247</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.22208889377633609</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.21196825384040183</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.20123456455339009</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.18757176957521057</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.1793678999836727</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.16866271282727674</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.15819836493749451</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1531517623449867</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.14566655008789894</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.14096813837097535</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.13535761522192408</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.12843984383894572</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.11301576524138165</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.1181826829765794</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.1113184175493054</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.10775686578703086</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.10558374395705053</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.10132654104654513</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.5579914865423304E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.3961524963149606E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.2145562380335194E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.5904354107709205E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.5100415633159371E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.2891832308507482E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.0417856878224767E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.7322929840876187E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.5368094548304509E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.3482729217941106E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.0370631080778845E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.8254307216568416E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.6224904157369452E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.4283061114810872E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.1950620014527266E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.9688837327492729E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE78-4E2D-AD5F-450820FDF5AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="378016447"/>
+        <c:axId val="1591763359"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="378016447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1591763359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1591763359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378016447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'[4]0R5'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -9899,7 +10570,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10700,7 +11371,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11376,7 +12047,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12052,7 +12723,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14076,7 +14747,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14974,7 +15645,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -18710,6 +19381,1531 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Power Consumption'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Power Consumption'!$A$2:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>63536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54536</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53536</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52536</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50536</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49536</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47536</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46536</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44536</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43536</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42536</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41536</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40536</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39536</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38536</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37536</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36536</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35536</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34536</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33536</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32536</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31536</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30536</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29536</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28536</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27536</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26536</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25536</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24536</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23536</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22536</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21536</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20536</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19536</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18536</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17536</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16536</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15536</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14536</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13536</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12536</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11536</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10536</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9536</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8536</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7536</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6536</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5536</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4536</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2536</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Power Consumption'!$D$2:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>-1.3100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4850000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3604E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1382000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4677999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3420000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12904199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.172484</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.220383</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.272866</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.331625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39782400000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45759</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.53821699999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.61916400000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70408000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79267200000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89423600000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99726999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0995980000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2065760000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.330095</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.446375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.565564</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.702358</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8204039999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9550240000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0836199999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2166549999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.3455460000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4716939999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6310500000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7426849999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8608319999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9677340000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0709919999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1721149999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.2396159999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.3243619999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.3337140000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.4089160000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.3522500000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.4102000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.2854800000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.3370479999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.15835</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.2099199999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.9696669999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.0262720000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.7904300000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.8293539999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.607056</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.6333579999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.4373239999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.4544100000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.2967</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.30945</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.1639339999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.155348</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0338500000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.0121060000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.906066</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.8694059999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD52-4328-B6E1-B2FC2AFF9074}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Power Consumption'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2R2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Power Consumption'!$A$2:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>63536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54536</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53536</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52536</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50536</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49536</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47536</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46536</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44536</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43536</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42536</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41536</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40536</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39536</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38536</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37536</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36536</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35536</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34536</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33536</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32536</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31536</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30536</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29536</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28536</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27536</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26536</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25536</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24536</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23536</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22536</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21536</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20536</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19536</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18536</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17536</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16536</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15536</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14536</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13536</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12536</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11536</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10536</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9536</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8536</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7536</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6536</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5536</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4536</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2536</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Power Consumption'!$E$2:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>-4.9200000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8654999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2479999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13627600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22458</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33285999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46585699999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63126000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81081999999999987</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.00288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.219884</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4930239999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.706734</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9273750000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2048100000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4802399999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7338050000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.033919</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2415600000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5263800000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7443659999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8897029999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.9862679999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0339200000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.9579089999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.9173109999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7515800000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.609216</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3944800000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.2465690000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0111479999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.866765</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.6582220000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.544918</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.3809049999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.2451220000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.1360239999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0081000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9285870000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8633440000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.8214240000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7166779999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.6442300000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5793400000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5136799999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.455638</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.39629</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.3278799999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3066199999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.239986</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2017279999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1539699999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1169550000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0762560000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0326660000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.005009</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.97102200000000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.93922000000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.90097000000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.879</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.87553199999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.80812799999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.78139499999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BD52-4328-B6E1-B2FC2AFF9074}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Power Consumption'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0R5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Power Consumption'!$A$2:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>63536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54536</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53536</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52536</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50536</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49536</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47536</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46536</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44536</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43536</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42536</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41536</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40536</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39536</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38536</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37536</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36536</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35536</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34536</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33536</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32536</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31536</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30536</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29536</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28536</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27536</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26536</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25536</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24536</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23536</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22536</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21536</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20536</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19536</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18536</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17536</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16536</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15536</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14536</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13536</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12536</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11536</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10536</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9536</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8536</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7536</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6536</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5536</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4536</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2536</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Power Consumption'!$F$2:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="1">
+                  <c:v>-9.1700000000000006E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5520000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14285900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.286192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47724900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73167599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98180299999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3224960000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.645718</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0491390000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2655609999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.686544</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.865021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1878379999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0194490000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.126188</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6671519999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5858690000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0253700000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0866900000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.014645</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1502749999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.84853600000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.85178799999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.71101999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.70848</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.62729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.59928000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.54367200000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.52550399999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.48216000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.46192699999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.43144499999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.41558199999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.38281399999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36691200000000007</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.35066100000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34058700000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.318573</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.30602999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.29027999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.27781599999999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.267036</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.25153200000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.24556500000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.23796500000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.22886400000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.21706500000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.21118999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.20687999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.19081999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.20422300000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.18310600000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.174542</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.172732</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.164822</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.16250600000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.159804</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.153062</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.147231</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.14427899999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.138263</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.132022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BD52-4328-B6E1-B2FC2AFF9074}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="66022112"/>
+        <c:axId val="66022592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="66022112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66022592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="66022592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66022112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -19397,7 +21593,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -20098,7 +22294,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -20799,7 +22995,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -21475,7 +23671,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -22096,682 +24292,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="525338975"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[1]75R'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pi</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'[1]75R'!$C$2:$C$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="1">
-                  <c:v>4.6769999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.665</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6609999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.665</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6689999999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.673</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.681</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.6689999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.673</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.6769999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.694</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.673</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.702</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.7060000000000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.7389999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7350000000000003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.7839999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.8369999999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.907</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.9809999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.1820000000000004</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.383</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.7850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.0970000000000004</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.61</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.8479999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.6680000000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.3160000000000007</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.423</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9.0670000000000002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.0749999999999993</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.6829999999999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.6419999999999995</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10.212</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10.093</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>10.569000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10.499000000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10.852</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>10.737</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>11.061</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>10.962999999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>11.205</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>11.156000000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>11.327999999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>11.275</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>11.406000000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>11.398</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>11.488</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>11.467000000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>11.541</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>11.537000000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>11.611000000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>11.590999999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>11.644</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>11.64</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>11.680999999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>11.680999999999999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>11.696999999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>11.734</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>11.747</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'[1]75R'!$E$2:$E$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="1">
-                  <c:v>2.3525309999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3418299999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.331153</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3398219999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.331153</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.3371650000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.3438379999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.3411729999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3451810000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.3438379999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.3458459999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.3478539999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.3563879999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.3365</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.355702</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.3577059999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.3694999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.3675000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.3919999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.4233370000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.4535</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.485519</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.5806360000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.4008180000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.8520050000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.981433</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.2322899999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.3212799999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.6375000000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.6883080000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.9667319999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.9588100000000002</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.1889539999999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.1291250000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.2605199999999996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.1749859999999996</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.207344</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.128037</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.0479269999999996</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.0001189999999998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.830756</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.8116349999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.5837639999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.5849009999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.3390900000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.3579560000000002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.1378560000000002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.1231749999999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.9313419999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.917888</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.7456320000000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.717679</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.5736430000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.5381399999999998</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.4150879999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.3761549999999998</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.2705799999999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.2232400000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.1376230000000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.0908989999999998</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.0118839999999998</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.971312</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.891267</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-41E8-4572-B95D-C273D535ADF6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1244203455"/>
-        <c:axId val="1244201535"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1244203455"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1244201535"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1244201535"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1244203455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -23547,6 +25067,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -33115,6 +34675,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -36926,6 +39002,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>208175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>518474</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50865</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA2C2B9-A779-C9B5-0DEB-94B869597CDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46712,7 +48824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D942DA4C-3787-4293-9638-544A0669DA5E}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
+    <sheetView zoomScale="163" workbookViewId="0">
       <selection activeCell="C25" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
@@ -46788,8 +48900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91A37A2-602C-4825-B48E-39368789826D}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="97" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
